--- a/biology/Zoologie/Anaea_aidea/Anaea_aidea.xlsx
+++ b/biology/Zoologie/Anaea_aidea/Anaea_aidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anaea aidea ou Anaea troglodyta aidea est une  sous-espèce d'insecte lépidoptère de la famille des Nymphalidae, de la sous-famille des Charaxinae, du genre Anaea et de l'espèce Anaea troglodyta.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anaea aidea a été décrit par Félix Édouard Guérin-Méneville en 1844.
-Synonymes : Paphia morrisonii Edwards, 1883; Anaea troglodya appiciata Röber, 1918; Anaea aidea; Anaea troglodyta aidea[1].
-Noms vernaculaires
-Anaea aidea se nomme Tropical Leafwing en anglais[1].
+Synonymes : Paphia morrisonii Edwards, 1883; Anaea troglodya appiciata Röber, 1918; Anaea aidea; Anaea troglodyta aidea.
 </t>
         </is>
       </c>
@@ -542,14 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anaea aidea est un papillon d'une envergure de 57 mm à 78 mm aux ailes antérieures à apex point et bord externe concave et aux ailes postérieures porteuses d'une queue en massue[2]. Il existe deux formes une de la saison sèche et une de la saison humide avec un dessus orange et un revers qui simule une feuille morte.
-			Chenille
-			Vue ventrale
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anaea aidea se nomme Tropical Leafwing en anglais.
 </t>
         </is>
       </c>
@@ -575,14 +591,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forme de la saison sèche vole de septembre à avril, celle de la saison humide d'avril à septembre[2].
-Plantes hôtes
-La plante-hôte de sa chenille est Acalypha macrostachya[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anaea aidea est un papillon d'une envergure de 57 mm à 78 mm aux ailes antérieures à apex point et bord externe concave et aux ailes postérieures porteuses d'une queue en massue. Il existe deux formes une de la saison sèche et une de la saison humide avec un dessus orange et un revers qui simule une feuille morte.
+			Chenille
+			Vue ventrale
 </t>
         </is>
       </c>
@@ -608,16 +626,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme de la saison sèche vole de septembre à avril, celle de la saison humide d'avril à septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anaea_aidea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anaea_aidea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante-hôte de sa chenille est Acalypha macrostachya.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anaea_aidea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anaea_aidea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent au Mexique et au Guatemala et occasionnellement en Arizona, au Kansas et dans le sud du Texas et de la Californie[1],[2].
-Biotope
-Anaea aidea réside sur les lisières de la forêt tropicale et les berges des rivières[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent au Mexique et au Guatemala et occasionnellement en Arizona, au Kansas et dans le sud du Texas et de la Californie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anaea_aidea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anaea_aidea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anaea aidea réside sur les lisières de la forêt tropicale et les berges des rivières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anaea_aidea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anaea_aidea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
